--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>페이지</t>
   </si>
@@ -252,6 +252,46 @@
   </si>
   <si>
     <t>최예니 주차장 업로드, 회원가입, 로그인</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>회원가입, 로그인, 메인페이지, 마이 페이지, 게시판</t>
+  </si>
+  <si>
+    <t>회원가입
+ 로그인
+메인페이지
+마이 페이지
+게시판</t>
+  </si>
+  <si>
+    <t>관리자 페이지, 문의, 고객센터, 과목별 예상 문제</t>
+  </si>
+  <si>
+    <t>관리자 페이지
+ 문의
+ 고객센터
+ 과목별 예상 문제</t>
+  </si>
+  <si>
+    <t>급식메뉴</t>
+  </si>
+  <si>
+    <t>공지사항&amp;가정통신문</t>
+  </si>
+  <si>
+    <t>학교일정</t>
+  </si>
+  <si>
+    <t>아이디찾기 &amp;비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>아이디 찾기 &amp; 비밀번호 찾기</t>
   </si>
 </sst>
 </file>
@@ -1453,9 +1493,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V58"/>
+  <dimension ref="B1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1512,7 @@
     <col min="21" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:21">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45178</v>
@@ -1523,7 +1563,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:21">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="20.100000" customHeight="1">
+    <row r="5" spans="2:21" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1650,7 +1690,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="20.100000" customHeight="1">
+    <row r="6" spans="2:21" ht="20.100000" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="16.500000" customHeight="1">
+    <row r="7" spans="2:21" ht="16.500000" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
@@ -1766,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:21">
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
@@ -1822,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:21">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
@@ -1878,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:21">
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
@@ -1934,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:21">
       <c r="B11" s="13"/>
       <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
@@ -1990,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:21">
       <c r="B12" s="13"/>
       <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
@@ -2046,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:21">
       <c r="B13" s="13"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7" t="s">
@@ -2102,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:21">
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
@@ -2158,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:21">
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="7" t="s">
@@ -2214,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:21">
       <c r="B16" s="14"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
@@ -2283,9 +2323,8 @@
         <f>AVERAGE(U6:U15)</f>
         <v>1</v>
       </c>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="2:22">
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
@@ -2344,9 +2383,8 @@
       <c r="U17" s="9">
         <v>1</v>
       </c>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="2:22">
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="21"/>
       <c r="C18" s="18"/>
       <c r="D18" s="24" t="s">
@@ -2401,9 +2439,8 @@
       <c r="U18" s="9">
         <v>1</v>
       </c>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="2:22">
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="21"/>
       <c r="C19" s="18"/>
       <c r="D19" s="24" t="s">
@@ -2458,9 +2495,8 @@
       <c r="U19" s="9">
         <v>1</v>
       </c>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="2:22">
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="21"/>
       <c r="C20" s="18"/>
       <c r="D20" s="24" t="s">
@@ -2515,9 +2551,8 @@
       <c r="U20" s="9">
         <v>1</v>
       </c>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="2:22">
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="21"/>
       <c r="C21" s="18"/>
       <c r="D21" s="24" t="s">
@@ -2572,9 +2607,8 @@
       <c r="U21" s="9">
         <v>1</v>
       </c>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="2:22">
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="21"/>
       <c r="C22" s="18"/>
       <c r="D22" s="27" t="s">
@@ -2630,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:21">
       <c r="B23" s="21"/>
       <c r="C23" s="18"/>
       <c r="D23" s="26" t="s">
@@ -2686,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:21">
       <c r="B24" s="21"/>
       <c r="C24" s="18"/>
       <c r="D24" s="26" t="s">
@@ -2742,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:21">
       <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="24" t="s">
@@ -2798,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:21">
       <c r="B26" s="21"/>
       <c r="C26" s="18"/>
       <c r="D26" s="24" t="s">
@@ -2854,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:21">
       <c r="B27" s="21"/>
       <c r="C27" s="18"/>
       <c r="D27" s="26" t="s">
@@ -2910,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:21">
       <c r="B28" s="21"/>
       <c r="C28" s="18"/>
       <c r="D28" s="26" t="s">
@@ -2966,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:21">
       <c r="B29" s="21"/>
       <c r="C29" s="18"/>
       <c r="D29" s="26" t="s">
@@ -3022,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:21">
       <c r="B30" s="22"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7"/>
@@ -3092,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:21">
       <c r="B31" s="12" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:21">
       <c r="B32" s="13"/>
       <c r="C32" s="18"/>
       <c r="D32" s="24" t="s">
@@ -4392,7 +4426,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4406,7 +4440,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4425,7 +4459,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4439,7 +4473,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4453,7 +4487,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4467,7 +4501,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4481,7 +4515,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4495,7 +4529,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4514,7 +4548,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4528,7 +4562,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4547,7 +4581,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4571,7 +4605,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4585,7 +4619,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4604,7 +4638,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4618,7 +4652,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4630,7 +4664,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4640,7 +4674,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4650,7 +4684,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4660,7 +4694,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4670,7 +4704,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4680,7 +4714,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4690,7 +4724,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4700,7 +4734,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4710,7 +4744,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4720,7 +4754,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4730,7 +4764,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4740,7 +4774,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4750,7 +4784,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4759,2976 +4793,6 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T57"/>
-  <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="15.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="30.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:20">
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>45190</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45191</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45192</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45193</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45194</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45195</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45196</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45197</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45198</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45199</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45200</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>45201</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45202</v>
-      </c>
-      <c r="S2" s="3">
-        <v>45203</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f>AVERAGE(F16,F30,F37,F42,F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>AVERAGE(G16,G30,G37,G42,G50)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H16,H30,H37,H42,H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(I16,I30,I37,I42,I50)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(J16,J30,J37,J42,J50)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <f>AVERAGE(K16,K30,K37,K42,K50)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <f>AVERAGE(L16,L30,L37,L42,L50)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <f>AVERAGE(M16,M30,M37,M42,M50)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N16,N30,N37,N42,N50)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O16,O30,O37,O42,O50)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <f>AVERAGE(P16,P30,P37,P42,P50)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>AVERAGE(Q16,Q30,Q37,Q42,Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f>AVERAGE(R16,R30,R37,R42,R50)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f>AVERAGE(S16,S30,S37,S42,S50)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f>AVERAGE(T16,T30,T37,T42,T50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" spans="2:20" ht="20.100000" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45190</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45191</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45192</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45193</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45194</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45195</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45196</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45197</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45198</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45199</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45200</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>45201</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45202</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45203</v>
-      </c>
-      <c r="T5" s="3">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="20.100000" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="16.500000" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6">
-        <f>AVERAGE(F6:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f>AVERAGE(G6:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <f>AVERAGE(H6:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <f>AVERAGE(I6:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AVERAGE(J6:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <f>AVERAGE(K6:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <f>AVERAGE(L6:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <f>AVERAGE(M6:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f>AVERAGE(N6:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f>AVERAGE(O6:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <f>AVERAGE(P6:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>AVERAGE(Q6:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <f>AVERAGE(R6:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <f>AVERAGE(S6:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <f>AVERAGE(T6:T15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="21"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="21"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="21"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="22"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6">
-        <f>AVERAGE(F17:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <f>AVERAGE(G17:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <f>AVERAGE(H17:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <f>AVERAGE(I17:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <f>AVERAGE(J17:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <f>AVERAGE(K17:K29)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <f>AVERAGE(L17:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <f>AVERAGE(M17:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <f>AVERAGE(N17:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <f>AVERAGE(O17:O29)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <f>AVERAGE(P17:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <f>AVERAGE(Q17:Q29)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <f>AVERAGE(R17:R29)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <f>AVERAGE(S17:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <f>AVERAGE(T17:T29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>0</v>
-      </c>
-      <c r="R31" s="9">
-        <v>0</v>
-      </c>
-      <c r="S31" s="9">
-        <v>0</v>
-      </c>
-      <c r="T31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="13"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
-      <c r="P32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>0</v>
-      </c>
-      <c r="R32" s="9">
-        <v>0</v>
-      </c>
-      <c r="S32" s="9">
-        <v>0</v>
-      </c>
-      <c r="T32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="13"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>0</v>
-      </c>
-      <c r="R33" s="9">
-        <v>0</v>
-      </c>
-      <c r="S33" s="9">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="13"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="13"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="13"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="14"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6">
-        <f>AVERAGE(F31:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <f>AVERAGE(G31:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <f>AVERAGE(H31:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <f>AVERAGE(I31:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <f>AVERAGE(J31:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <f>AVERAGE(K31:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <f>AVERAGE(L31:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <f>AVERAGE(M31:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <f>AVERAGE(N31:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <f>AVERAGE(O31:O36)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <f>AVERAGE(P31:P36)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <f>AVERAGE(Q31:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <f>AVERAGE(R31:R36)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <f>AVERAGE(S31:S36)</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="6">
-        <f>AVERAGE(T31:T36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="13"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>0</v>
-      </c>
-      <c r="R39" s="9">
-        <v>0</v>
-      </c>
-      <c r="S39" s="9">
-        <v>0</v>
-      </c>
-      <c r="T39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="13"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0</v>
-      </c>
-      <c r="R40" s="9">
-        <v>0</v>
-      </c>
-      <c r="S40" s="9">
-        <v>0</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="13"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
-      <c r="P41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <v>0</v>
-      </c>
-      <c r="S41" s="9">
-        <v>0</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="14"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6">
-        <f>AVERAGE(F38:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <f>AVERAGE(G38:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <f>AVERAGE(H38:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <f>AVERAGE(I38:I41)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <f>AVERAGE(J38:J41)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <f>AVERAGE(K38:K41)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <f>AVERAGE(L38:L41)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <f>AVERAGE(M38:M41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <f>AVERAGE(N38:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <f>AVERAGE(O38:O41)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <f>AVERAGE(P38:P41)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <f>AVERAGE(Q38:Q41)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
-        <f>AVERAGE(R38:R41)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="6">
-        <f>AVERAGE(S38:S41)</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="6">
-        <f>AVERAGE(T38:T41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-      <c r="P43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>0</v>
-      </c>
-      <c r="R43" s="9">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9">
-        <v>0</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-      <c r="P44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>0</v>
-      </c>
-      <c r="R44" s="9">
-        <v>0</v>
-      </c>
-      <c r="S44" s="9">
-        <v>0</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-      <c r="P45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>0</v>
-      </c>
-      <c r="R45" s="9">
-        <v>0</v>
-      </c>
-      <c r="S45" s="9">
-        <v>0</v>
-      </c>
-      <c r="T45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="13"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-      <c r="P46" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <v>0</v>
-      </c>
-      <c r="S46" s="9">
-        <v>0</v>
-      </c>
-      <c r="T46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20">
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0</v>
-      </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
-      <c r="P47" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>0</v>
-      </c>
-      <c r="R47" s="9">
-        <v>0</v>
-      </c>
-      <c r="S47" s="9">
-        <v>0</v>
-      </c>
-      <c r="T47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20">
-      <c r="B48" s="13"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-      <c r="P48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <v>0</v>
-      </c>
-      <c r="S48" s="9">
-        <v>0</v>
-      </c>
-      <c r="T48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="16.500000" customHeight="1">
-      <c r="B49" s="13"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-      <c r="P49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9">
-        <v>0</v>
-      </c>
-      <c r="S49" s="9">
-        <v>0</v>
-      </c>
-      <c r="T49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="7"/>
-      <c r="F50" s="6">
-        <f>AVERAGE(F43:F49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <f>AVERAGE(G43:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <f>AVERAGE(H43:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <f>AVERAGE(I43:I49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <f>AVERAGE(J43:J49)</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <f>AVERAGE(K43:K49)</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <f>AVERAGE(L43:L49)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <f>AVERAGE(M43:M49)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <f>AVERAGE(N43:N49)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <f>AVERAGE(O43:O49)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <f>AVERAGE(P43:P49)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <f>AVERAGE(Q43:Q49)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <f>AVERAGE(R43:R49)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <f>AVERAGE(S43:S49)</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <f>AVERAGE(T43:T49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="E52" s="8"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="E53" s="8"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:20">
-      <c r="E54" s="8"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="E55" s="8"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="E56" s="8"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="E57" s="8"/>
-      <c r="F57" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="C17:C30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D10 D15 B17:C28 E17:E28 B29:C29 E29 B31:C31 E36 B43">
-    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C41">
-    <cfRule type="cellIs" dxfId="9" priority="157" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43 E49">
-    <cfRule type="cellIs" dxfId="8" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 T49:U49">
-    <cfRule type="dataBar" priority="559">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 T36:U36">
-    <cfRule type="dataBar" priority="560">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E10">
-    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 T8:U15">
-    <cfRule type="dataBar" priority="521">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F17:O28 H27:O27 F28 H28:O28 F29:O29">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F17:O28 H27:O27 F28 H28:O28 F29:O29">
-    <cfRule type="dataBar" priority="528">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 G17:O26 T17:U28 G27:O28 G29:O29 T29:U29">
-    <cfRule type="dataBar" priority="533">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F43:O47 F48:O48 F49:O49">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F43:O47 F48:O48 F49:O49">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 F6:J12 P6:T50 T8:U13 F13:O13 F14:O14 T14:U14 F15:J15 T15:U15">
-    <cfRule type="dataBar" priority="512">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F31:O36">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 K6:O12 P6:T50 T7:U7 G13:O13 G14:O14 K15:O15">
-    <cfRule type="dataBar" priority="516">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 F38:O41 H38:O38 F39:F41 H39:O41">
-    <cfRule type="dataBar" priority="487">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:T4 P6:T50 T38:U41">
-    <cfRule type="dataBar" priority="489">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -7749,8 +4813,2783 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AC51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="30.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F12,F26,F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G12,G26,G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H12,H26,H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I12,I26,I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J12,J26,J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K12,K26,K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L12,L26,L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M12,M26,M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N12,N26,N31)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O12,O26,O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P12,P26,P31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q12,Q26,Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R12,R26,R31)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S12,S26,S31)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T12,T26,T31)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U12,U26,U31)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V12,V26,V31)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W12,W26,W31)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X12,X26,X31)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y12,Y26,Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z12,Z26,Z31)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA12,AA26,AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB12,AB26,AB31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC12,AC26,AC31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <f>AVERAGE(F6:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f>AVERAGE(G6:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f>AVERAGE(H6:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f>AVERAGE(I6:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <f>AVERAGE(J6:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f>AVERAGE(K6:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f>AVERAGE(L6:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f>AVERAGE(M6:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f>AVERAGE(N6:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f>AVERAGE(O6:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <f>AVERAGE(P6:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>AVERAGE(Q6:Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <f>AVERAGE(R6:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f>AVERAGE(S6:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <f>AVERAGE(T6:T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <f>AVERAGE(U6:U11)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <f>AVERAGE(V6:V11)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f>AVERAGE(W6:W11)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <f>AVERAGE(X6:X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <f>AVERAGE(Y6:Y11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <f>AVERAGE(Z6:Z11)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <f>AVERAGE(AA6:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <f>AVERAGE(AB6:AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <f>AVERAGE(AC6:AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="22"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <f>AVERAGE(F13:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G13:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f>AVERAGE(H13:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f>AVERAGE(I13:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J13:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K13:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>AVERAGE(L13:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f>AVERAGE(M13:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(N13:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>AVERAGE(O13:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <f>AVERAGE(P13:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>AVERAGE(Q13:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f>AVERAGE(R13:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f>AVERAGE(S13:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f>AVERAGE(T13:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f>AVERAGE(U13:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f>AVERAGE(V13:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f>AVERAGE(W13:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <f>AVERAGE(X13:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>AVERAGE(Y13:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>AVERAGE(Z13:Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>AVERAGE(AA13:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>AVERAGE(AB13:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>AVERAGE(AC13:AC25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="14"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6">
+        <f>AVERAGE(F27:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <f>AVERAGE(G27:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <f>AVERAGE(H27:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <f>AVERAGE(I27:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <f>AVERAGE(J27:J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f>AVERAGE(K27:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <f>AVERAGE(L27:L30)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <f>AVERAGE(M27:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <f>AVERAGE(N27:N30)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <f>AVERAGE(O27:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>AVERAGE(P27:P30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <f>AVERAGE(Q27:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <f>AVERAGE(R27:R30)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <f>AVERAGE(S27:S30)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <f>AVERAGE(T27:T30)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <f>AVERAGE(U27:U30)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
+        <f>AVERAGE(V27:V30)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <f>AVERAGE(W27:W30)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <f>AVERAGE(X27:X30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <f>AVERAGE(Y27:Y30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <f>AVERAGE(Z27:Z30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <f>AVERAGE(AA27:AA30)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="6">
+        <f>AVERAGE(AB27:AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="6">
+        <f>AVERAGE(AC27:AC30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="E36" s="8"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="E37" s="8"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="E45" s="1"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="E46" s="1"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="E47" s="1"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="E48" s="1"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="1"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="1"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="1"/>
+      <c r="F51" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="B13:B26"/>
+    <mergeCell ref="C13:C26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D10 B13:C24 E13:E24 B25:C25 E25 B27:C27">
+    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="559">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="560">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E10">
+    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 T8:U11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="521">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC12 P12:T30 F13 G13:AC25 H13:O13 F14:F25 H14:O25 G26:AC31 P31:T31 G3:AC3">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC12 P12:T30 F13 G13:AC25 H13:O13 F14:F25 H14:O25 G26:AC31 P31:T31 G3:AC3">
+    <cfRule type="dataBar" priority="528">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC25 P12:T30 H13:O13 T13:U24 H14:O25 T25:U25 G26:AC31 P31:T31 G3:AC3">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 F6:AC11 H6:J6 P6:T11 F7:F11 H7:J8 T8:U11 H9:J11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="512">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC26 P12:T30 F27 G27:AC30 H27:O27 F28:F30 H28:O30 G31:AC31 P31:T31 G3:AC3">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 K6:O11 P6:T11 T7:U7 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="516">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="487">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
+    <cfRule type="dataBar" priority="489">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7760,7 +7599,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7770,7 +7609,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7780,7 +7619,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7790,7 +7629,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7800,7 +7639,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7810,7 +7649,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7820,7 +7659,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7830,7 +7669,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7840,7 +7679,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7850,7 +7689,27 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>페이지</t>
   </si>
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>아이디 찾기 &amp; 비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>회원가입 &amp; 로그인</t>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+  </si>
+  <si>
+    <t>문의센터</t>
+  </si>
+  <si>
+    <t>고객센터</t>
+  </si>
+  <si>
+    <t>과목별 예상 문제</t>
   </si>
 </sst>
 </file>
@@ -4426,7 +4441,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4440,7 +4455,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4459,7 +4474,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4473,7 +4488,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4487,7 +4502,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4501,7 +4516,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4515,7 +4530,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4529,7 +4544,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4548,7 +4563,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4562,7 +4577,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4581,7 +4596,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4605,7 +4620,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4619,7 +4634,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4638,7 +4653,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4652,7 +4667,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4664,7 +4679,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4674,7 +4689,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4684,7 +4699,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4694,7 +4709,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4704,7 +4719,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4714,7 +4729,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4724,7 +4739,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4734,7 +4749,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4744,7 +4759,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4754,7 +4769,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4764,7 +4779,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4774,7 +4789,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4784,7 +4799,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4793,6 +4808,1921 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="30.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F11,F16,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G11,G16,G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H11,H16,H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I11,I16,I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J11,J16,J21)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K11,K16,K21)</f>
+        <v>0.06</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L11,L16,L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M11,M16,M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N11,N16,N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O11,O16,O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P11,P16,P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q11,Q16,Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R11,R16,R21)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S11,S16,S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T11,T16,T21)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U11,U16,U21)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V11,V16,V21)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W11,W16,W21)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X11,X16,X21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y11,Y16,Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z11,Z16,Z21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA11,AA16,AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB11,AB16,AB21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC11,AC16,AC21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <f>AVERAGE(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>AVERAGE(I6:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGE(J6:J10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AVERAGE(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AVERAGE(N6:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>AVERAGE(O6:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>AVERAGE(P6:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(R6:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AVERAGE(S6:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AVERAGE(T6:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <f>AVERAGE(U6:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <f>AVERAGE(V6:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>AVERAGE(W6:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <f>AVERAGE(X6:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>AVERAGE(Y6:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <f>AVERAGE(Z6:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>AVERAGE(AA6:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>AVERAGE(AB6:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>AVERAGE(AC6:AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <f>AVERAGE(F12:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f>AVERAGE(G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f>AVERAGE(H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f>AVERAGE(I12:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f>AVERAGE(J12:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f>AVERAGE(K12:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f>AVERAGE(L12:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f>AVERAGE(M12:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f>AVERAGE(N12:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f>AVERAGE(O12:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f>AVERAGE(P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>AVERAGE(Q12:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <f>AVERAGE(R12:R15)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <f>AVERAGE(S12:S15)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <f>AVERAGE(T12:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <f>AVERAGE(U12:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <f>AVERAGE(V12:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <f>AVERAGE(W12:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <f>AVERAGE(X12:X15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <f>AVERAGE(Y12:Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <f>AVERAGE(Z12:Z15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <f>AVERAGE(AA12:AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <f>AVERAGE(AB12:AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <f>AVERAGE(AC12:AC15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="14"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <f>AVERAGE(F17:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>AVERAGE(G17:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f>AVERAGE(H17:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>AVERAGE(I17:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>AVERAGE(J17:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>AVERAGE(K17:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f>AVERAGE(L17:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f>AVERAGE(M17:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(N17:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f>AVERAGE(O17:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <f>AVERAGE(P17:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>AVERAGE(Q17:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f>AVERAGE(R17:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f>AVERAGE(S17:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f>AVERAGE(T17:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f>AVERAGE(U17:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f>AVERAGE(V17:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f>AVERAGE(W17:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f>AVERAGE(X17:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <f>AVERAGE(Y17:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f>AVERAGE(Z17:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>AVERAGE(AA17:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <f>AVERAGE(AB17:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f>AVERAGE(AC17:AC20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="E22" s="8"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="E23" s="8"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="E24" s="8"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="E25" s="8"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="E26" s="8"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="E27" s="8"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D9 B12:C15 E12:E15 B17:C17">
+    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="559">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="560">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 T8:U8 G9:AC10 P9:T10 T9:U10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="521">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC11 P11:T15 F12 G12:AC15 H12:O12 F13:F15 H13:O15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC11 P11:T15 F12 G12:AC15 H12:O12 F13:F15 H13:O15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="528">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 H12:O12 T12:U15 H13:O15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:AC8 H6:J6 P6:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:AC10 H9:J10 P9:T10 T9:U10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="512">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC16 P16:T20 F17 G17:AC20 H17:O17 F18:F20 H18:O20 G21:AC21 P21:T21">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 K6:O8 P6:T8 T7:U7 G9:AC10 K9:O10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="516">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="487">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
+    <cfRule type="dataBar" priority="489">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -4813,2783 +6743,8 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="30.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:29">
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S2" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V2" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W2" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X2" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29">
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f>AVERAGE(F12,F26,F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>AVERAGE(G12,G26,G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H12,H26,H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(I12,I26,I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(J12,J26,J31)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <f>AVERAGE(K12,K26,K31)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <f>AVERAGE(L12,L26,L31)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <f>AVERAGE(M12,M26,M31)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N12,N26,N31)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O12,O26,O31)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <f>AVERAGE(P12,P26,P31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>AVERAGE(Q12,Q26,Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f>AVERAGE(R12,R26,R31)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f>AVERAGE(S12,S26,S31)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f>AVERAGE(T12,T26,T31)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <f>AVERAGE(U12,U26,U31)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <f>AVERAGE(V12,V26,V31)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <f>AVERAGE(W12,W26,W31)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <f>AVERAGE(X12,X26,X31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f>AVERAGE(Y12,Y26,Y31)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>AVERAGE(Z12,Z26,Z31)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>AVERAGE(AA12,AA26,AA31)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <f>AVERAGE(AB12,AB26,AB31)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>AVERAGE(AC12,AC26,AC31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29">
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T5" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U5" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V5" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W5" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9">
-        <v>0</v>
-      </c>
-      <c r="X11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6">
-        <f>AVERAGE(F6:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f>AVERAGE(G6:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <f>AVERAGE(H6:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <f>AVERAGE(I6:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f>AVERAGE(J6:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <f>AVERAGE(K6:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <f>AVERAGE(L6:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <f>AVERAGE(M6:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <f>AVERAGE(N6:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <f>AVERAGE(O6:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <f>AVERAGE(P6:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <f>AVERAGE(Q6:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <f>AVERAGE(R6:R11)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <f>AVERAGE(S6:S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <f>AVERAGE(T6:T11)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <f>AVERAGE(U6:U11)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
-        <f>AVERAGE(V6:V11)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <f>AVERAGE(W6:W11)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <f>AVERAGE(X6:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <f>AVERAGE(Y6:Y11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <f>AVERAGE(Z6:Z11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <f>AVERAGE(AA6:AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <f>AVERAGE(AB6:AB11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <f>AVERAGE(AC6:AC11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-      <c r="V21" s="9">
-        <v>0</v>
-      </c>
-      <c r="W21" s="9">
-        <v>0</v>
-      </c>
-      <c r="X21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29">
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9">
-        <v>0</v>
-      </c>
-      <c r="W23" s="9">
-        <v>0</v>
-      </c>
-      <c r="X23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0</v>
-      </c>
-      <c r="W24" s="9">
-        <v>0</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29">
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29">
-      <c r="B26" s="22"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f>AVERAGE(F13:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <f>AVERAGE(G13:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <f>AVERAGE(H13:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <f>AVERAGE(I13:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f>AVERAGE(J13:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <f>AVERAGE(K13:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f>AVERAGE(L13:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f>AVERAGE(M13:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <f>AVERAGE(N13:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f>AVERAGE(O13:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <f>AVERAGE(P13:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>AVERAGE(Q13:Q25)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <f>AVERAGE(R13:R25)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <f>AVERAGE(S13:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <f>AVERAGE(T13:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f>AVERAGE(U13:U25)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f>AVERAGE(V13:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f>AVERAGE(W13:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f>AVERAGE(X13:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <f>AVERAGE(Y13:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <f>AVERAGE(Z13:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>AVERAGE(AA13:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <f>AVERAGE(AB13:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>AVERAGE(AC13:AC25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29">
-      <c r="B27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0</v>
-      </c>
-      <c r="V27" s="9">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9">
-        <v>0</v>
-      </c>
-      <c r="X27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29">
-      <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="9">
-        <v>0</v>
-      </c>
-      <c r="V28" s="9">
-        <v>0</v>
-      </c>
-      <c r="W28" s="9">
-        <v>0</v>
-      </c>
-      <c r="X28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29">
-      <c r="B29" s="13"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
-      <c r="U29" s="9">
-        <v>0</v>
-      </c>
-      <c r="V29" s="9">
-        <v>0</v>
-      </c>
-      <c r="W29" s="9">
-        <v>0</v>
-      </c>
-      <c r="X29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="B30" s="13"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-      <c r="P30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0</v>
-      </c>
-      <c r="U30" s="9">
-        <v>0</v>
-      </c>
-      <c r="V30" s="9">
-        <v>0</v>
-      </c>
-      <c r="W30" s="9">
-        <v>0</v>
-      </c>
-      <c r="X30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29">
-      <c r="B31" s="14"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6">
-        <f>AVERAGE(F27:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <f>AVERAGE(G27:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <f>AVERAGE(H27:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <f>AVERAGE(I27:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <f>AVERAGE(J27:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <f>AVERAGE(K27:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <f>AVERAGE(L27:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <f>AVERAGE(M27:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <f>AVERAGE(N27:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <f>AVERAGE(O27:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <f>AVERAGE(P27:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <f>AVERAGE(Q27:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <f>AVERAGE(R27:R30)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <f>AVERAGE(S27:S30)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="6">
-        <f>AVERAGE(T27:T30)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="6">
-        <f>AVERAGE(U27:U30)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <f>AVERAGE(V27:V30)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="6">
-        <f>AVERAGE(W27:W30)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="6">
-        <f>AVERAGE(X27:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <f>AVERAGE(Y27:Y30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6">
-        <f>AVERAGE(Z27:Z30)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="6">
-        <f>AVERAGE(AA27:AA30)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="6">
-        <f>AVERAGE(AB27:AB30)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="6">
-        <f>AVERAGE(AC27:AC30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29">
-      <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="2:29">
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:29">
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:29">
-      <c r="E38" s="8"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="45" spans="2:29">
-      <c r="E45" s="1"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:29">
-      <c r="E46" s="1"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:29">
-      <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:29">
-      <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="1"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="B13:B26"/>
-    <mergeCell ref="C13:C26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D10 B13:C24 E13:E24 B25:C25 E25 B27:C27">
-    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="559">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="560">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E10">
-    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 T8:U11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="521">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC12 P12:T30 F13 G13:AC25 H13:O13 F14:F25 H14:O25 G26:AC31 P31:T31 G3:AC3">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC12 P12:T30 F13 G13:AC25 H13:O13 F14:F25 H14:O25 G26:AC31 P31:T31 G3:AC3">
-    <cfRule type="dataBar" priority="528">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC25 P12:T30 H13:O13 T13:U24 H14:O25 T25:U25 G26:AC31 P31:T31 G3:AC3">
-    <cfRule type="dataBar" priority="533">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 F6:AC11 H6:J6 P6:T11 F7:F11 H7:J8 T8:U11 H9:J11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="512">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC26 P12:T30 F27 G27:AC30 H27:O27 F28:F30 H28:O30 G31:AC31 P31:T31 G3:AC3">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 K6:O11 P6:T11 T7:U7 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="516">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="487">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:AC3 P3:T4 G6:AC11 P6:T11 G12:AC31 P12:T31 G3:AC3">
-    <cfRule type="dataBar" priority="489">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7599,7 +6754,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7609,7 +6764,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7619,7 +6774,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7629,7 +6784,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7639,7 +6794,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7649,7 +6804,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7659,7 +6814,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7669,7 +6824,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7679,7 +6834,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7689,27 +6844,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>페이지</t>
   </si>
@@ -307,6 +307,33 @@
   </si>
   <si>
     <t>과목별 예상 문제</t>
+  </si>
+  <si>
+    <t>관리자 페이지 로그인</t>
+  </si>
+  <si>
+    <t>학교관리</t>
+  </si>
+  <si>
+    <t>공지사항 관리(게시판) - 수정/등록/삭제/조회</t>
+  </si>
+  <si>
+    <t>회원관리 - 수정/등록/삭제/조회</t>
+  </si>
+  <si>
+    <t>문의목록 관리 - 수정/등록/삭제/조회</t>
+  </si>
+  <si>
+    <t>고객센터 이메일문의</t>
+  </si>
+  <si>
+    <t>고객센터 1:1문의</t>
+  </si>
+  <si>
+    <t>과목별 예상문제 - 수정/등록/삭제/조회</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1094,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4441,7 +4489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4455,7 +4503,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4474,7 +4522,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4488,7 +4536,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4502,7 +4550,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4516,7 +4564,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4530,7 +4578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4544,7 +4592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4563,7 +4611,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4577,7 +4625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4596,7 +4644,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4620,7 +4668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4634,7 +4682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4653,7 +4701,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4667,7 +4715,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4679,7 +4727,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4689,7 +4737,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4699,7 +4747,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4709,7 +4757,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4719,7 +4767,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4729,7 +4777,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4739,7 +4787,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4749,7 +4797,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4759,7 +4807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4769,7 +4817,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4779,7 +4827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4789,7 +4837,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4799,7 +4847,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4808,1921 +4856,6 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="30.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:29">
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S2" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V2" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W2" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X2" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29">
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f>AVERAGE(F11,F16,F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>AVERAGE(G11,G16,G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H11,H16,H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(I11,I16,I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(J11,J16,J21)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="6">
-        <f>AVERAGE(K11,K16,K21)</f>
-        <v>0.06</v>
-      </c>
-      <c r="L3" s="6">
-        <f>AVERAGE(L11,L16,L21)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <f>AVERAGE(M11,M16,M21)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N11,N16,N21)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O11,O16,O21)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <f>AVERAGE(P11,P16,P21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>AVERAGE(Q11,Q16,Q21)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f>AVERAGE(R11,R16,R21)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f>AVERAGE(S11,S16,S21)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f>AVERAGE(T11,T16,T21)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <f>AVERAGE(U11,U16,U21)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <f>AVERAGE(V11,V16,V21)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <f>AVERAGE(W11,W16,W21)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <f>AVERAGE(X11,X16,X21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f>AVERAGE(Y11,Y16,Y21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>AVERAGE(Z11,Z16,Z21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>AVERAGE(AA11,AA16,AA21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <f>AVERAGE(AB11,AB16,AB21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>AVERAGE(AC11,AC16,AC21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29">
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T5" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U5" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V5" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W5" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6">
-        <f>AVERAGE(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f>AVERAGE(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>AVERAGE(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f>AVERAGE(I6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGE(J6:J10)</f>
-        <v>0.06</v>
-      </c>
-      <c r="K11" s="6">
-        <f>AVERAGE(K6:K10)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L11" s="6">
-        <f>AVERAGE(L6:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <f>AVERAGE(M6:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f>AVERAGE(N6:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <f>AVERAGE(O6:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <f>AVERAGE(P6:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>AVERAGE(Q6:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <f>AVERAGE(R6:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <f>AVERAGE(S6:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <f>AVERAGE(T6:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <f>AVERAGE(U6:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <f>AVERAGE(V6:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <f>AVERAGE(W6:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <f>AVERAGE(X6:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <f>AVERAGE(Y6:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <f>AVERAGE(Z6:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <f>AVERAGE(AA6:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <f>AVERAGE(AB6:AB10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <f>AVERAGE(AC6:AC10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29">
-      <c r="B12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9">
-        <v>0</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29">
-      <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6">
-        <f>AVERAGE(F12:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f>AVERAGE(G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <f>AVERAGE(H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <f>AVERAGE(I12:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AVERAGE(J12:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <f>AVERAGE(K12:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <f>AVERAGE(L12:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <f>AVERAGE(M12:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f>AVERAGE(N12:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f>AVERAGE(O12:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <f>AVERAGE(P12:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>AVERAGE(Q12:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <f>AVERAGE(R12:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <f>AVERAGE(S12:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <f>AVERAGE(T12:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <f>AVERAGE(U12:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <f>AVERAGE(V12:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <f>AVERAGE(W12:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <f>AVERAGE(X12:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <f>AVERAGE(Y12:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <f>AVERAGE(Z12:Z15)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <f>AVERAGE(AA12:AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <f>AVERAGE(AB12:AB15)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <f>AVERAGE(AC12:AC15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="13"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="13"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="14"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f>AVERAGE(F17:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f>AVERAGE(G17:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <f>AVERAGE(H17:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f>AVERAGE(I17:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <f>AVERAGE(J17:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <f>AVERAGE(K17:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(L17:L20)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <f>AVERAGE(M17:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <f>AVERAGE(N17:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <f>AVERAGE(O17:O20)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <f>AVERAGE(P17:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>AVERAGE(Q17:Q20)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <f>AVERAGE(R17:R20)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <f>AVERAGE(S17:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <f>AVERAGE(T17:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f>AVERAGE(U17:U20)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f>AVERAGE(V17:V20)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f>AVERAGE(W17:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f>AVERAGE(X17:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <f>AVERAGE(Y17:Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <f>AVERAGE(Z17:Z20)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>AVERAGE(AA17:AA20)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <f>AVERAGE(AB17:AB20)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f>AVERAGE(AC17:AC20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29">
-      <c r="E22" s="8"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:29">
-      <c r="E23" s="8"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:29">
-      <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:29">
-      <c r="E25" s="8"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:29">
-      <c r="E26" s="8"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:29">
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:29">
-      <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D9 B12:C15 E12:E15 B17:C17">
-    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="559">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="560">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 T8:U8 G9:AC10 P9:T10 T9:U10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="521">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC11 P11:T15 F12 G12:AC15 H12:O12 F13:F15 H13:O15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC11 P11:T15 F12 G12:AC15 H12:O12 F13:F15 H13:O15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="528">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 H12:O12 T12:U15 H13:O15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="533">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:AC8 H6:J6 P6:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:AC10 H9:J10 P9:T10 T9:U10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="512">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC16 P16:T20 F17 G17:AC20 H17:O17 F18:F20 H18:O20 G21:AC21 P21:T21">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 K6:O8 P6:T8 T7:U7 G9:AC10 K9:O10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="516">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="487">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:AC8 P6:T8 G9:AC10 P9:T10 G11:AC15 P11:T15 G16:AC21 P16:T21">
-    <cfRule type="dataBar" priority="489">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -6743,8 +4876,2303 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AC36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="40.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F11,F21,F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G11,G21,G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H11,H21,H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I11,I21,I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J11,J21,J26)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K11,K21,K26)</f>
+        <v>0.0625925925925926</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L11,L21,L26)</f>
+        <v>0.00407407407407407</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M11,M21,M26)</f>
+        <v>0.0062962962962963</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N11,N21,N26)</f>
+        <v>0.102962962962963</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O11,O21,O26)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P11,P21,P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q11,Q21,Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R11,R21,R26)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S11,S21,S26)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T11,T21,T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U11,U21,U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V11,V21,V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W11,W21,W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X11,X21,X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y11,Y21,Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z11,Z21,Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA11,AA21,AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB11,AB21,AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC11,AC21,AC26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <f>AVERAGE(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>AVERAGE(I6:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGE(J6:J10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AVERAGE(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AVERAGE(N6:N10)</f>
+        <v>0.29</v>
+      </c>
+      <c r="O11" s="6">
+        <f>AVERAGE(O6:O10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P11" s="6">
+        <f>AVERAGE(P6:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(R6:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AVERAGE(S6:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AVERAGE(T6:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <f>AVERAGE(U6:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <f>AVERAGE(V6:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>AVERAGE(W6:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <f>AVERAGE(X6:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>AVERAGE(Y6:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <f>AVERAGE(Z6:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>AVERAGE(AA6:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>AVERAGE(AB6:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>AVERAGE(AC6:AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" customHeight="1">
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="21"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <f>AVERAGE(F12:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>AVERAGE(G12:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f>AVERAGE(H12:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>AVERAGE(I12:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>AVERAGE(J12:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>AVERAGE(K12:K20)</f>
+        <v>0.00777777777777778</v>
+      </c>
+      <c r="L21" s="6">
+        <f>AVERAGE(L12:L20)</f>
+        <v>0.0122222222222222</v>
+      </c>
+      <c r="M21" s="6">
+        <f>AVERAGE(M12:M20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(N12:N20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="O21" s="6">
+        <f>AVERAGE(O12:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <f>AVERAGE(P12:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>AVERAGE(Q12:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f>AVERAGE(R12:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f>AVERAGE(S12:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f>AVERAGE(T12:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f>AVERAGE(U12:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f>AVERAGE(V12:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f>AVERAGE(W12:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f>AVERAGE(X12:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <f>AVERAGE(Y12:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f>AVERAGE(Z12:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>AVERAGE(AA12:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <f>AVERAGE(AB12:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f>AVERAGE(AC12:AC20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <f>AVERAGE(F22:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G22:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f>AVERAGE(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f>AVERAGE(I22:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J22:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K22:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>AVERAGE(L22:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f>AVERAGE(M22:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(N22:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>AVERAGE(O22:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <f>AVERAGE(P22:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>AVERAGE(Q22:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f>AVERAGE(R22:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f>AVERAGE(S22:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f>AVERAGE(T22:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f>AVERAGE(U22:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f>AVERAGE(V22:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f>AVERAGE(W22:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <f>AVERAGE(X22:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>AVERAGE(Y22:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>AVERAGE(Z22:Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>AVERAGE(AA22:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>AVERAGE(AB22:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>AVERAGE(AC22:AC25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="E27" s="8"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D9 B20:C20 E20 B22:C22">
+    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="559">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="560">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 T8:U8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 T9:U10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="521">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="528">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 P6:AC6 F7:N7 P7:AC7 F8:N8 P8:AC8 H6:J6 P6:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:N9 P9:AC9 F10:N10 P10:AC10 H9:J10 P9:T10 T9:U10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="512">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 K6:N6 K7:N7 K8:N8 P6:T8 T7:U7 G9:N9 P9:AC9 G10:N10 P10:AC10 K9:N9 K10:N10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="516">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="487">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
+    <cfRule type="dataBar" priority="489">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6754,7 +7182,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6764,7 +7192,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6774,7 +7202,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6784,7 +7212,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6794,7 +7222,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6804,7 +7232,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6814,7 +7242,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6824,7 +7252,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6834,7 +7262,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6844,7 +7272,27 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
@@ -4489,7 +4489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4503,7 +4503,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4522,7 +4522,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4536,7 +4536,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4550,7 +4550,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4564,7 +4564,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4578,7 +4578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4592,7 +4592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4611,7 +4611,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4625,7 +4625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4644,7 +4644,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4668,7 +4668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4682,7 +4682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4701,7 +4701,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4715,7 +4715,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4727,7 +4727,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4737,7 +4737,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4747,7 +4747,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4757,7 +4757,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4767,7 +4767,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4777,7 +4777,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4787,7 +4787,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4797,7 +4797,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4807,7 +4807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4817,7 +4817,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4827,7 +4827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4837,7 +4837,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4847,7 +4847,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4856,6 +4856,2322 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="40.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="11" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F11,F21,F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G11,G21,G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H11,H21,H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I11,I21,I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J11,J21,J26)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K11,K21,K26)</f>
+        <v>0.0625925925925926</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L11,L21,L26)</f>
+        <v>0.00407407407407407</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M11,M21,M26)</f>
+        <v>0.0062962962962963</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N11,N21,N26)</f>
+        <v>0.102962962962963</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O11,O21,O26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P11,P21,P26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q11,Q21,Q26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R11,R21,R26)</f>
+        <v>0.19962962962963</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S11,S21,S26)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T11,T21,T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U11,U21,U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V11,V21,V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W11,W21,W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X11,X21,X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y11,Y21,Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z11,Z21,Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA11,AA21,AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB11,AB21,AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC11,AC21,AC26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <f>AVERAGE(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>AVERAGE(I6:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGE(J6:J10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AVERAGE(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AVERAGE(N6:N10)</f>
+        <v>0.29</v>
+      </c>
+      <c r="O11" s="6">
+        <f>AVERAGE(O6:O10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P11" s="6">
+        <f>AVERAGE(P6:P10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(R6:R10)</f>
+        <v>0.58</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AVERAGE(S6:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AVERAGE(T6:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <f>AVERAGE(U6:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <f>AVERAGE(V6:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>AVERAGE(W6:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <f>AVERAGE(X6:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>AVERAGE(Y6:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <f>AVERAGE(Z6:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>AVERAGE(AA6:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>AVERAGE(AB6:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>AVERAGE(AC6:AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" customHeight="1">
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="21"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <f>AVERAGE(F12:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>AVERAGE(G12:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f>AVERAGE(H12:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>AVERAGE(I12:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>AVERAGE(J12:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>AVERAGE(K12:K20)</f>
+        <v>0.00777777777777778</v>
+      </c>
+      <c r="L21" s="6">
+        <f>AVERAGE(L12:L20)</f>
+        <v>0.0122222222222222</v>
+      </c>
+      <c r="M21" s="6">
+        <f>AVERAGE(M12:M20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(N12:N20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="O21" s="6">
+        <f>AVERAGE(O12:O20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="P21" s="6">
+        <f>AVERAGE(P12:P20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>AVERAGE(Q12:Q20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="R21" s="6">
+        <f>AVERAGE(R12:R20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="S21" s="6">
+        <f>AVERAGE(S12:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f>AVERAGE(T12:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f>AVERAGE(U12:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f>AVERAGE(V12:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f>AVERAGE(W12:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f>AVERAGE(X12:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <f>AVERAGE(Y12:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f>AVERAGE(Z12:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>AVERAGE(AA12:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <f>AVERAGE(AB12:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f>AVERAGE(AC12:AC20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <f>AVERAGE(F22:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G22:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f>AVERAGE(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f>AVERAGE(I22:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J22:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K22:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>AVERAGE(L22:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f>AVERAGE(M22:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(N22:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>AVERAGE(O22:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <f>AVERAGE(P22:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>AVERAGE(Q22:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f>AVERAGE(R22:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f>AVERAGE(S22:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f>AVERAGE(T22:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f>AVERAGE(U22:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f>AVERAGE(V22:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f>AVERAGE(W22:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <f>AVERAGE(X22:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>AVERAGE(Y22:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>AVERAGE(Z22:Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>AVERAGE(AA22:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>AVERAGE(AB22:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>AVERAGE(AC22:AC25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="E27" s="8"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D9 B20:C20 E20 B22:C22">
+    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="559">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="560">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 T8:U8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 T9:U10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="521">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="528">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 Q6:AC6 F7:N7 Q7:AC7 F8:N8 Q8:AC8 H6:J6 Q6:T6 Q7:T7 Q8:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:N9 Q9:AC9 F10:N10 Q10:AC10 H9:J10 Q9:T9 Q10:T10 T9:U10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="512">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 K6:N6 K7:N7 K8:N8 Q6:T6 Q7:T7 Q8:T8 T7:U7 G9:N9 Q9:AC9 G10:N10 Q10:AC10 K9:N9 K10:N10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="516">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="487">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
+    <cfRule type="dataBar" priority="489">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -4876,2303 +7192,8 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="40.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:29">
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S2" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V2" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W2" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X2" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29">
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f>AVERAGE(F11,F21,F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>AVERAGE(G11,G21,G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H11,H21,H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(I11,I21,I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(J11,J21,J26)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="6">
-        <f>AVERAGE(K11,K21,K26)</f>
-        <v>0.0625925925925926</v>
-      </c>
-      <c r="L3" s="6">
-        <f>AVERAGE(L11,L21,L26)</f>
-        <v>0.00407407407407407</v>
-      </c>
-      <c r="M3" s="6">
-        <f>AVERAGE(M11,M21,M26)</f>
-        <v>0.0062962962962963</v>
-      </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N11,N21,N26)</f>
-        <v>0.102962962962963</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O11,O21,O26)</f>
-        <v>0.12</v>
-      </c>
-      <c r="P3" s="6">
-        <f>AVERAGE(P11,P21,P26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>AVERAGE(Q11,Q21,Q26)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f>AVERAGE(R11,R21,R26)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f>AVERAGE(S11,S21,S26)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f>AVERAGE(T11,T21,T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <f>AVERAGE(U11,U21,U26)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <f>AVERAGE(V11,V21,V26)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <f>AVERAGE(W11,W21,W26)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <f>AVERAGE(X11,X21,X26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f>AVERAGE(Y11,Y21,Y26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>AVERAGE(Z11,Z21,Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>AVERAGE(AA11,AA21,AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <f>AVERAGE(AB11,AB21,AB26)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>AVERAGE(AC11,AC21,AC26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29">
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T5" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U5" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V5" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W5" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6">
-        <f>AVERAGE(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f>AVERAGE(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>AVERAGE(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f>AVERAGE(I6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGE(J6:J10)</f>
-        <v>0.06</v>
-      </c>
-      <c r="K11" s="6">
-        <f>AVERAGE(K6:K10)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L11" s="6">
-        <f>AVERAGE(L6:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <f>AVERAGE(M6:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f>AVERAGE(N6:N10)</f>
-        <v>0.29</v>
-      </c>
-      <c r="O11" s="6">
-        <f>AVERAGE(O6:O10)</f>
-        <v>0.36</v>
-      </c>
-      <c r="P11" s="6">
-        <f>AVERAGE(P6:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>AVERAGE(Q6:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <f>AVERAGE(R6:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <f>AVERAGE(S6:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <f>AVERAGE(T6:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <f>AVERAGE(U6:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <f>AVERAGE(V6:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <f>AVERAGE(W6:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <f>AVERAGE(X6:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <f>AVERAGE(Y6:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <f>AVERAGE(Z6:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <f>AVERAGE(AA6:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <f>AVERAGE(AB6:AB10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <f>AVERAGE(AC6:AC10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9">
-        <v>0</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="21"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="22"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f>AVERAGE(F12:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f>AVERAGE(G12:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <f>AVERAGE(H12:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f>AVERAGE(I12:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <f>AVERAGE(J12:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <f>AVERAGE(K12:K20)</f>
-        <v>0.00777777777777778</v>
-      </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(L12:L20)</f>
-        <v>0.0122222222222222</v>
-      </c>
-      <c r="M21" s="6">
-        <f>AVERAGE(M12:M20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="N21" s="6">
-        <f>AVERAGE(N12:N20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="O21" s="6">
-        <f>AVERAGE(O12:O20)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <f>AVERAGE(P12:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>AVERAGE(Q12:Q20)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <f>AVERAGE(R12:R20)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <f>AVERAGE(S12:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <f>AVERAGE(T12:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f>AVERAGE(U12:U20)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f>AVERAGE(V12:V20)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f>AVERAGE(W12:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f>AVERAGE(X12:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <f>AVERAGE(Y12:Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <f>AVERAGE(Z12:Z20)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>AVERAGE(AA12:AA20)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <f>AVERAGE(AB12:AB20)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f>AVERAGE(AC12:AC20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29">
-      <c r="B23" s="13"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9">
-        <v>0</v>
-      </c>
-      <c r="W23" s="9">
-        <v>0</v>
-      </c>
-      <c r="X23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="13"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0</v>
-      </c>
-      <c r="W24" s="9">
-        <v>0</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29">
-      <c r="B25" s="13"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29">
-      <c r="B26" s="14"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f>AVERAGE(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <f>AVERAGE(G22:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <f>AVERAGE(H22:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <f>AVERAGE(I22:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f>AVERAGE(J22:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <f>AVERAGE(K22:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f>AVERAGE(L22:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f>AVERAGE(M22:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <f>AVERAGE(N22:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f>AVERAGE(O22:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <f>AVERAGE(P22:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>AVERAGE(Q22:Q25)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <f>AVERAGE(R22:R25)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <f>AVERAGE(S22:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <f>AVERAGE(T22:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f>AVERAGE(U22:U25)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f>AVERAGE(V22:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f>AVERAGE(W22:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f>AVERAGE(X22:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <f>AVERAGE(Y22:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <f>AVERAGE(Z22:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>AVERAGE(AA22:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <f>AVERAGE(AB22:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>AVERAGE(AC22:AC25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29">
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:29">
-      <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:29">
-      <c r="E29" s="8"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="E30" s="8"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:29">
-      <c r="E31" s="8"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:29">
-      <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D9 B20:C20 E20 B22:C22">
-    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="559">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="560">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 T8:U8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 T9:U10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="521">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="528">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="533">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 P6:AC6 F7:N7 P7:AC7 F8:N8 P8:AC8 H6:J6 P6:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:N9 P9:AC9 F10:N10 P10:AC10 H9:J10 P9:T10 T9:U10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="512">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 K6:N6 K7:N7 K8:N8 P6:T8 T7:U7 G9:N9 P9:AC9 G10:N10 P10:AC10 K9:N9 K10:N10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="516">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="487">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 P6:AC6 G7:N7 P7:AC7 G8:N8 P8:AC8 P6:T8 G9:N9 P9:AC9 G10:N10 P10:AC10 P9:T10 G11:AC11 P11:T12 G12:M12 O12:AC12 G13:M13 O13:AC13 G14:M14 O14:AC14 G15:M15 O15:AC15 G16:AC20 H12:M12 O12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10">
-    <cfRule type="dataBar" priority="489">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7182,7 +7203,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7192,7 +7213,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7202,7 +7223,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7212,7 +7233,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7222,7 +7243,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7232,7 +7253,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7242,7 +7263,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7252,7 +7273,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7262,7 +7283,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7272,27 +7293,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4887,7 +4887,7 @@
   <dimension ref="B1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -5032,11 +5032,11 @@
       </c>
       <c r="R3" s="6">
         <f>AVERAGE(R11,R21,R26)</f>
-        <v>0.19962962962963</v>
+        <v>0.192962962962963</v>
       </c>
       <c r="S3" s="6">
         <f>AVERAGE(S11,S21,S26)</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T3" s="6">
         <f>AVERAGE(T11,T21,T26)</f>
@@ -5216,10 +5216,10 @@
         <v>0.3</v>
       </c>
       <c r="R6" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0.7</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>0.9</v>
       </c>
       <c r="S8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>0.6</v>
       </c>
       <c r="S10" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -5627,11 +5627,11 @@
       </c>
       <c r="R11" s="6">
         <f>AVERAGE(R6:R10)</f>
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="S11" s="6">
         <f>AVERAGE(S6:S10)</f>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="T11" s="6">
         <f>AVERAGE(T6:T10)</f>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4489,7 +4489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4503,7 +4503,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4522,7 +4522,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4536,7 +4536,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4550,7 +4550,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4564,7 +4564,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4578,7 +4578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4592,7 +4592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4611,7 +4611,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4625,7 +4625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4644,7 +4644,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4668,7 +4668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4682,7 +4682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4701,7 +4701,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4715,7 +4715,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4727,7 +4727,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4737,7 +4737,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4747,7 +4747,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4757,7 +4757,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4767,7 +4767,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4777,7 +4777,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4787,7 +4787,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4797,7 +4797,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4807,7 +4807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4817,7 +4817,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4827,7 +4827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4836,6 +4836,2342 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="40.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="16" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F11,F21,F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G11,G21,G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H11,H21,H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I11,I21,I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J11,J21,J26)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K11,K21,K26)</f>
+        <v>0.0625925925925926</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L11,L21,L26)</f>
+        <v>0.00407407407407407</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M11,M21,M26)</f>
+        <v>0.0062962962962963</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N11,N21,N26)</f>
+        <v>0.102962962962963</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O11,O21,O26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P11,P21,P26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q11,Q21,Q26)</f>
+        <v>0.126296296296296</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R11,R21,R26)</f>
+        <v>0.192962962962963</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S11,S21,S26)</f>
+        <v>0.24</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T11,T21,T26)</f>
+        <v>0.26</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U11,U21,U26)</f>
+        <v>0.303333333333333</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V11,V21,V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W11,W21,W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X11,X21,X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y11,Y21,Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z11,Z21,Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA11,AA21,AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB11,AB21,AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC11,AC21,AC26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <f>AVERAGE(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>AVERAGE(I6:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGE(J6:J10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AVERAGE(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AVERAGE(N6:N10)</f>
+        <v>0.29</v>
+      </c>
+      <c r="O11" s="6">
+        <f>AVERAGE(O6:O10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P11" s="6">
+        <f>AVERAGE(P6:P10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(R6:R10)</f>
+        <v>0.56</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AVERAGE(S6:S10)</f>
+        <v>0.72</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AVERAGE(T6:T10)</f>
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="6">
+        <f>AVERAGE(U6:U10)</f>
+        <v>0.91</v>
+      </c>
+      <c r="V11" s="6">
+        <f>AVERAGE(V6:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>AVERAGE(W6:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <f>AVERAGE(X6:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>AVERAGE(Y6:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <f>AVERAGE(Z6:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>AVERAGE(AA6:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>AVERAGE(AB6:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>AVERAGE(AC6:AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" customHeight="1">
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="21"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <f>AVERAGE(F12:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>AVERAGE(G12:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f>AVERAGE(H12:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>AVERAGE(I12:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>AVERAGE(J12:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>AVERAGE(K12:K20)</f>
+        <v>0.00777777777777778</v>
+      </c>
+      <c r="L21" s="6">
+        <f>AVERAGE(L12:L20)</f>
+        <v>0.0122222222222222</v>
+      </c>
+      <c r="M21" s="6">
+        <f>AVERAGE(M12:M20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(N12:N20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="O21" s="6">
+        <f>AVERAGE(O12:O20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="P21" s="6">
+        <f>AVERAGE(P12:P20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>AVERAGE(Q12:Q20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="R21" s="6">
+        <f>AVERAGE(R12:R20)</f>
+        <v>0.0188888888888889</v>
+      </c>
+      <c r="S21" s="6">
+        <f>AVERAGE(S12:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f>AVERAGE(T12:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f>AVERAGE(U12:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f>AVERAGE(V12:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f>AVERAGE(W12:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f>AVERAGE(X12:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <f>AVERAGE(Y12:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f>AVERAGE(Z12:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>AVERAGE(AA12:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <f>AVERAGE(AB12:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f>AVERAGE(AC12:AC20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <f>AVERAGE(F22:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G22:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f>AVERAGE(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f>AVERAGE(I22:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J22:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K22:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>AVERAGE(L22:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f>AVERAGE(M22:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(N22:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>AVERAGE(O22:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <f>AVERAGE(P22:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>AVERAGE(Q22:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f>AVERAGE(R22:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f>AVERAGE(S22:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f>AVERAGE(T22:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f>AVERAGE(U22:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f>AVERAGE(V22:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f>AVERAGE(W22:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <f>AVERAGE(X22:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>AVERAGE(Y22:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>AVERAGE(Z22:Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>AVERAGE(AA22:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>AVERAGE(AB22:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>AVERAGE(AC22:AC25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="E27" s="8"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D9 B20:C20 E20 B22:C22">
+    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="559">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="560">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="521">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="528">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 Q6:S6 V6:AC6 F7:N7 Q7:S7 V7:AC7 F8:N8 Q8:S8 V8:AC8 H6:J6 Q6:S6 Q7:S7 Q8:S8 F7:F8 H7:J8 F9:F10 F9:N9 Q9:S9 V9:AC9 F10:N10 Q10:S10 V10:AC10 H9:J10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="512">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 K6:N6 K7:N7 K8:N8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 K9:N9 K10:N10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="516">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="487">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+    <cfRule type="dataBar" priority="489">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -4876,2304 +7212,8 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="40.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="11" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:29">
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S2" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V2" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W2" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X2" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29">
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <f>AVERAGE(F11,F21,F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>AVERAGE(G11,G21,G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H11,H21,H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(I11,I21,I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(J11,J21,J26)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="6">
-        <f>AVERAGE(K11,K21,K26)</f>
-        <v>0.0625925925925926</v>
-      </c>
-      <c r="L3" s="6">
-        <f>AVERAGE(L11,L21,L26)</f>
-        <v>0.00407407407407407</v>
-      </c>
-      <c r="M3" s="6">
-        <f>AVERAGE(M11,M21,M26)</f>
-        <v>0.0062962962962963</v>
-      </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N11,N21,N26)</f>
-        <v>0.102962962962963</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O11,O21,O26)</f>
-        <v>0.126296296296296</v>
-      </c>
-      <c r="P3" s="6">
-        <f>AVERAGE(P11,P21,P26)</f>
-        <v>0.126296296296296</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>AVERAGE(Q11,Q21,Q26)</f>
-        <v>0.126296296296296</v>
-      </c>
-      <c r="R3" s="6">
-        <f>AVERAGE(R11,R21,R26)</f>
-        <v>0.192962962962963</v>
-      </c>
-      <c r="S3" s="6">
-        <f>AVERAGE(S11,S21,S26)</f>
-        <v>0.24</v>
-      </c>
-      <c r="T3" s="6">
-        <f>AVERAGE(T11,T21,T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <f>AVERAGE(U11,U21,U26)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <f>AVERAGE(V11,V21,V26)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <f>AVERAGE(W11,W21,W26)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <f>AVERAGE(X11,X21,X26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f>AVERAGE(Y11,Y21,Y26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>AVERAGE(Z11,Z21,Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>AVERAGE(AA11,AA21,AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <f>AVERAGE(AB11,AB21,AB26)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>AVERAGE(AC11,AC21,AC26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29">
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" spans="2:29" ht="20.100000" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45210</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45211</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45212</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45213</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45214</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45215</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45216</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45217</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45218</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45219</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45220</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>45221</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45222</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45223</v>
-      </c>
-      <c r="T5" s="3">
-        <v>45224</v>
-      </c>
-      <c r="U5" s="3">
-        <v>45225</v>
-      </c>
-      <c r="V5" s="3">
-        <v>45226</v>
-      </c>
-      <c r="W5" s="3">
-        <v>45227</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45228</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>45229</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>45230</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>45232</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="16.500000" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="S8" s="9">
-        <v>1</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6">
-        <f>AVERAGE(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f>AVERAGE(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>AVERAGE(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f>AVERAGE(I6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGE(J6:J10)</f>
-        <v>0.06</v>
-      </c>
-      <c r="K11" s="6">
-        <f>AVERAGE(K6:K10)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L11" s="6">
-        <f>AVERAGE(L6:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <f>AVERAGE(M6:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f>AVERAGE(N6:N10)</f>
-        <v>0.29</v>
-      </c>
-      <c r="O11" s="6">
-        <f>AVERAGE(O6:O10)</f>
-        <v>0.36</v>
-      </c>
-      <c r="P11" s="6">
-        <f>AVERAGE(P6:P10)</f>
-        <v>0.36</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>AVERAGE(Q6:Q10)</f>
-        <v>0.36</v>
-      </c>
-      <c r="R11" s="6">
-        <f>AVERAGE(R6:R10)</f>
-        <v>0.56</v>
-      </c>
-      <c r="S11" s="6">
-        <f>AVERAGE(S6:S10)</f>
-        <v>0.72</v>
-      </c>
-      <c r="T11" s="6">
-        <f>AVERAGE(T6:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <f>AVERAGE(U6:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <f>AVERAGE(V6:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <f>AVERAGE(W6:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <f>AVERAGE(X6:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <f>AVERAGE(Y6:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <f>AVERAGE(Z6:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <f>AVERAGE(AA6:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <f>AVERAGE(AB6:AB10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <f>AVERAGE(AC6:AC10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9">
-        <v>0</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="21"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="22"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f>AVERAGE(F12:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f>AVERAGE(G12:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <f>AVERAGE(H12:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f>AVERAGE(I12:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <f>AVERAGE(J12:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <f>AVERAGE(K12:K20)</f>
-        <v>0.00777777777777778</v>
-      </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(L12:L20)</f>
-        <v>0.0122222222222222</v>
-      </c>
-      <c r="M21" s="6">
-        <f>AVERAGE(M12:M20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="N21" s="6">
-        <f>AVERAGE(N12:N20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="O21" s="6">
-        <f>AVERAGE(O12:O20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="P21" s="6">
-        <f>AVERAGE(P12:P20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>AVERAGE(Q12:Q20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="R21" s="6">
-        <f>AVERAGE(R12:R20)</f>
-        <v>0.0188888888888889</v>
-      </c>
-      <c r="S21" s="6">
-        <f>AVERAGE(S12:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <f>AVERAGE(T12:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f>AVERAGE(U12:U20)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f>AVERAGE(V12:V20)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f>AVERAGE(W12:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f>AVERAGE(X12:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <f>AVERAGE(Y12:Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <f>AVERAGE(Z12:Z20)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>AVERAGE(AA12:AA20)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <f>AVERAGE(AB12:AB20)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f>AVERAGE(AC12:AC20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29">
-      <c r="B23" s="13"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9">
-        <v>0</v>
-      </c>
-      <c r="W23" s="9">
-        <v>0</v>
-      </c>
-      <c r="X23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="13"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0</v>
-      </c>
-      <c r="W24" s="9">
-        <v>0</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29">
-      <c r="B25" s="13"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29">
-      <c r="B26" s="14"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f>AVERAGE(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <f>AVERAGE(G22:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <f>AVERAGE(H22:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <f>AVERAGE(I22:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f>AVERAGE(J22:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <f>AVERAGE(K22:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f>AVERAGE(L22:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f>AVERAGE(M22:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <f>AVERAGE(N22:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f>AVERAGE(O22:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <f>AVERAGE(P22:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>AVERAGE(Q22:Q25)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <f>AVERAGE(R22:R25)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <f>AVERAGE(S22:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <f>AVERAGE(T22:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f>AVERAGE(U22:U25)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f>AVERAGE(V22:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f>AVERAGE(W22:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f>AVERAGE(X22:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <f>AVERAGE(Y22:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <f>AVERAGE(Z22:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>AVERAGE(AA22:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <f>AVERAGE(AB22:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>AVERAGE(AC22:AC25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29">
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:29">
-      <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:29">
-      <c r="E29" s="8"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="E30" s="8"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:29">
-      <c r="E31" s="8"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:29">
-      <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D9 B20:C20 E20 B22:C22">
-    <cfRule type="cellIs" dxfId="10" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="505" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="559">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="560">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="6" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 T8:U8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 T9:U10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="521">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="528">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="533">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 Q6:AC6 F7:N7 Q7:AC7 F8:N8 Q8:AC8 H6:J6 Q6:T6 Q7:T7 Q8:T8 F7:F8 H7:J8 T8:U8 F9:F10 F9:N9 Q9:AC9 F10:N10 Q10:AC10 H9:J10 Q9:T9 Q10:T10 T9:U10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="512">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 K6:N6 K7:N7 K8:N8 Q6:T6 Q7:T7 Q8:T8 T7:U7 G9:N9 Q9:AC9 G10:N10 Q10:AC10 K9:N9 K10:N10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="516">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="487">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:AC6 G7:N7 Q7:AC7 G8:N8 Q8:AC8 Q6:T6 Q7:T7 Q8:T8 G9:N9 Q9:AC9 G10:N10 Q10:AC10 Q9:T9 Q10:T10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15">
-    <cfRule type="dataBar" priority="489">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7183,7 +7223,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7193,7 +7233,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7203,7 +7243,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7213,7 +7253,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7223,7 +7263,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7233,7 +7273,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7243,7 +7283,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7253,47 +7293,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -4489,7 +4489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4503,7 +4503,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4522,7 +4522,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4536,7 +4536,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4550,7 +4550,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4564,7 +4564,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4578,7 +4578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4592,7 +4592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4611,7 +4611,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4625,7 +4625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4644,7 +4644,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4668,7 +4668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4682,7 +4682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4701,7 +4701,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4715,7 +4715,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4727,7 +4727,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4737,7 +4737,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4747,7 +4747,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4757,7 +4757,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4767,7 +4767,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4777,7 +4777,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4787,7 +4787,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4797,7 +4797,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4807,7 +4807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4817,7 +4817,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4827,7 +4827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4837,7 +4837,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4847,7 +4847,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4857,7 +4857,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4867,7 +4867,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4887,7 +4887,7 @@
   <dimension ref="B1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -5048,19 +5048,19 @@
       </c>
       <c r="V3" s="6">
         <f>AVERAGE(V11,V21,V26)</f>
-        <v>0</v>
+        <v>0.303333333333333</v>
       </c>
       <c r="W3" s="6">
         <f>AVERAGE(W11,W21,W26)</f>
-        <v>0</v>
+        <v>0.303333333333333</v>
       </c>
       <c r="X3" s="6">
         <f>AVERAGE(X11,X21,X26)</f>
-        <v>0</v>
+        <v>0.303333333333333</v>
       </c>
       <c r="Y3" s="6">
         <f>AVERAGE(Y11,Y21,Y26)</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Z3" s="6">
         <f>AVERAGE(Z11,Z21,Z26)</f>
@@ -5228,16 +5228,16 @@
         <v>1</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="9">
         <v>0</v>
@@ -5308,16 +5308,16 @@
         <v>0.7</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W7" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X7" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Y7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="9">
         <v>0</v>
@@ -5388,16 +5388,16 @@
         <v>1</v>
       </c>
       <c r="V8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="9">
         <v>0</v>
@@ -5468,16 +5468,16 @@
         <v>1</v>
       </c>
       <c r="V9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="9">
         <v>0</v>
@@ -5548,16 +5548,16 @@
         <v>0.85</v>
       </c>
       <c r="V10" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="W10" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="X10" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="Y10" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z10" s="9">
         <v>0</v>
@@ -5643,19 +5643,19 @@
       </c>
       <c r="V11" s="6">
         <f>AVERAGE(V6:V10)</f>
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="W11" s="6">
         <f>AVERAGE(W6:W10)</f>
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="X11" s="6">
         <f>AVERAGE(X6:X10)</f>
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="Y11" s="6">
         <f>AVERAGE(Y6:Y10)</f>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="Z11" s="6">
         <f>AVERAGE(Z6:Z10)</f>
@@ -6974,7 +6974,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="559">
       <dataBar>
         <cfvo type="min"/>
@@ -6983,12 +6983,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="560">
       <dataBar>
         <cfvo type="min"/>
@@ -6997,7 +6997,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7007,7 +7007,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="521">
       <dataBar>
         <cfvo type="min"/>
@@ -7016,12 +7016,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
@@ -7030,12 +7030,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:O11 P11:T12 U11:AC11 F12:F20 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 P16:T16 H20:O20 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="528">
       <dataBar>
         <cfvo type="min"/>
@@ -7044,12 +7044,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:O20 H20:AC20 P20:T20 T20:U20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="533">
       <dataBar>
         <cfvo type="min"/>
@@ -7058,12 +7058,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
@@ -7072,12 +7072,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
@@ -7086,7 +7086,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7096,7 +7096,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 Q6:S6 V6:AC6 F7:N7 Q7:S7 V7:AC7 F8:N8 Q8:S8 V8:AC8 H6:J6 Q6:S6 Q7:S7 Q8:S8 F7:F8 H7:J8 F9:F10 F9:N9 Q9:S9 V9:AC9 F10:N10 Q10:S10 V10:AC10 H9:J10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 F6:N6 Q6:S6 W6:AC6 F7:N7 Q7:S7 W7:AC7 F8:N8 Q8:S8 W8:AC8 H6:J6 Q6:S6 Q7:S7 Q8:S8 F7:F8 H7:J8 F9:F10 F9:N9 Q9:S9 W9:AC9 F10:N10 Q10:S10 W10:AC10 H9:J10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="512">
       <dataBar>
         <cfvo type="min"/>
@@ -7105,12 +7105,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T25 F22 G22:AC25 H22:O22 F23:F25 H23:O25 G26:AC26 P26:T26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -7119,12 +7119,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 K6:N6 K7:N7 K8:N8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 K9:N9 K10:N10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 K6:N6 K7:N7 K8:N8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 K9:N9 K10:N10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="516">
       <dataBar>
         <cfvo type="min"/>
@@ -7133,12 +7133,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="487">
       <dataBar>
         <cfvo type="min"/>
@@ -7147,12 +7147,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 V6:AC6 G7:N7 Q7:S7 V7:AC7 G8:N8 Q8:S8 V8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 V9:AC9 G10:N10 Q10:S10 V10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10">
+  <conditionalFormatting sqref="G3:AC3 H3:AC3 P3:T4 G6:N6 Q6:S6 W6:AC6 G7:N7 Q7:S7 W7:AC7 G8:N8 Q8:S8 W8:AC8 Q6:S6 Q7:S7 Q8:S8 G9:N9 Q9:S9 W9:AC9 G10:N10 Q10:S10 W10:AC10 Q9:S9 Q10:S10 G11:AC11 P11:T12 G12:M12 P12:AC12 G13:M13 P13:AC13 G14:M14 P14:AC14 G15:M15 P15:AC15 G16:AC20 H12:M12 P12:AC12 H16:AC16 P16:T16 H20:AC20 P20:T20 G21:AC21 H21:AC21 P21:T26 G22:AC26 N12:N15 O6:O10 P6:R10 O12:R15 T6:U10 V6:Y10">
     <cfRule type="dataBar" priority="489">
       <dataBar>
         <cfvo type="min"/>
@@ -7161,7 +7161,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7173,7 +7173,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7183,7 +7183,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7193,7 +7193,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7203,7 +7203,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7213,7 +7213,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7223,7 +7223,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7233,7 +7233,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7243,7 +7243,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7253,7 +7253,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7263,7 +7263,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7273,7 +7273,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7283,7 +7283,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7293,7 +7293,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
